--- a/biology/Biochimie/Aplysiatoxine/Aplysiatoxine.xlsx
+++ b/biology/Biochimie/Aplysiatoxine/Aplysiatoxine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'aplysiatoxine est une cyanotoxine produite par certaines espèces de cyanobactéries, chez lesquelles elle intervient comme défense contre la prédation par des poissons grâce à sa puissante action irritante et cancérogène par activation de la protéine kinase C[2],[3],[4],[5]. Bien que cette action favorise l'apparition de tumeurs, l'activation de la protéine kinase C peut être bénéfique à certaines applications médicales, de sorte que des analogues synthétiques de l'aplysiatoxine ont fait l'objet de recherches comme anticancéreux[6],[7],[8].
+L'aplysiatoxine est une cyanotoxine produite par certaines espèces de cyanobactéries, chez lesquelles elle intervient comme défense contre la prédation par des poissons grâce à sa puissante action irritante et cancérogène par activation de la protéine kinase C. Bien que cette action favorise l'apparition de tumeurs, l'activation de la protéine kinase C peut être bénéfique à certaines applications médicales, de sorte que des analogues synthétiques de l'aplysiatoxine ont fait l'objet de recherches comme anticancéreux.
 </t>
         </is>
       </c>
